--- a/data/trans_orig/iP30KDB1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDB1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD1C86D1-0A2C-4945-82DA-6F1EBFEEF891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A6BF442-ED6B-4340-BB73-0EF8EA37C052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7EAAD3CA-2ED0-4606-B7E0-13E348C59335}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{409B4F3C-F89E-4A25-82BC-A96DB6E20977}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si desayunan cereales o derivados en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,208 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -750,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50526990-8751-4ADE-AD42-0EE20057F676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B72868-282A-4D97-A718-133E5E1FD8F1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -868,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D4" s="7">
-        <v>36543</v>
+        <v>36849</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -883,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I4" s="7">
-        <v>36715</v>
+        <v>38344</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -901,7 +919,7 @@
         <v>133</v>
       </c>
       <c r="N4" s="7">
-        <v>73258</v>
+        <v>75192</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -919,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>6601</v>
+        <v>9646</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -934,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>9578</v>
+        <v>6941</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -952,7 +970,7 @@
         <v>31</v>
       </c>
       <c r="N5" s="7">
-        <v>16178</v>
+        <v>16587</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -970,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1003,7 +1021,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1023,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D7" s="7">
-        <v>163567</v>
+        <v>145902</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1038,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="I7" s="7">
-        <v>145324</v>
+        <v>170394</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1056,7 +1074,7 @@
         <v>495</v>
       </c>
       <c r="N7" s="7">
-        <v>308892</v>
+        <v>316297</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1065,7 +1083,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1074,49 +1092,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <v>13397</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
         <v>17</v>
       </c>
-      <c r="D8" s="7">
-        <v>11150</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="7">
-        <v>21</v>
-      </c>
       <c r="I8" s="7">
-        <v>13441</v>
+        <v>11565</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
       </c>
       <c r="N8" s="7">
-        <v>24590</v>
+        <v>24962</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1125,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1176,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1172,55 +1190,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>221</v>
+      </c>
+      <c r="D10" s="7">
+        <v>164505</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>231</v>
       </c>
-      <c r="D10" s="7">
-        <v>192817</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>221</v>
-      </c>
       <c r="I10" s="7">
-        <v>167464</v>
+        <v>202525</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>452</v>
       </c>
       <c r="N10" s="7">
-        <v>360281</v>
+        <v>367031</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1232,46 +1250,46 @@
         <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>9661</v>
+        <v>8567</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>8649</v>
+        <v>9965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
       </c>
       <c r="N11" s="7">
-        <v>18310</v>
+        <v>18532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1280,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1313,7 +1331,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1327,55 +1345,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>322</v>
+      </c>
+      <c r="D13" s="7">
+        <v>260120</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
         <v>321</v>
       </c>
-      <c r="D13" s="7">
-        <v>267341</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>322</v>
-      </c>
       <c r="I13" s="7">
-        <v>245301</v>
+        <v>278046</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>643</v>
       </c>
       <c r="N13" s="7">
-        <v>512643</v>
+        <v>538167</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1384,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7">
+        <v>14147</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>20</v>
       </c>
-      <c r="D14" s="7">
-        <v>21653</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="7">
-        <v>19</v>
-      </c>
       <c r="I14" s="7">
-        <v>14137</v>
+        <v>26953</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
       </c>
       <c r="N14" s="7">
-        <v>35790</v>
+        <v>41099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1438,7 +1456,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1453,7 +1471,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1468,7 +1486,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1488,49 +1506,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>844</v>
+      </c>
+      <c r="D16" s="7">
+        <v>607377</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>879</v>
       </c>
-      <c r="D16" s="7">
-        <v>660268</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="7">
-        <v>844</v>
-      </c>
       <c r="I16" s="7">
-        <v>594804</v>
+        <v>689310</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1723</v>
       </c>
       <c r="N16" s="7">
-        <v>1255073</v>
+        <v>1296687</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>71</v>
+      </c>
+      <c r="D17" s="7">
+        <v>45757</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>61</v>
       </c>
-      <c r="D17" s="7">
-        <v>49065</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="7">
-        <v>71</v>
-      </c>
       <c r="I17" s="7">
-        <v>45805</v>
+        <v>55423</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>132</v>
       </c>
       <c r="N17" s="7">
-        <v>94869</v>
+        <v>101180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1623,7 +1641,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1637,7 +1655,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
